--- a/Code/resources/potential_time.xlsx
+++ b/Code/resources/potential_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GARIMA DOCUMENTS\CalTech\Term III\GPU\Project\Code\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198D1C57-90CF-4399-9406-664A4952EA48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B76695-F048-4AA1-B1BE-E01CFDB0BCB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5C95630-DDD0-42BC-8124-4BDC39BA0AB9}"/>
   </bookViews>
@@ -117,18 +117,18 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +446,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,54 +459,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -535,7 +535,7 @@
         <f>MIN(65535,B4)</f>
         <v>42</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>0.25081599999999998</v>
       </c>
       <c r="I4">
@@ -571,7 +571,7 @@
         <f t="shared" ref="G5:G14" si="2">MIN(65535,B5)</f>
         <v>162</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>0.433888</v>
       </c>
       <c r="I5">
@@ -607,14 +607,14 @@
         <f t="shared" si="2"/>
         <v>642</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>1.9578880000000001</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>0.83443199999999995</v>
       </c>
     </row>
@@ -643,14 +643,14 @@
         <f t="shared" si="2"/>
         <v>2562</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>5.1098559999999997</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>2.39392</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>7.1992640000000003</v>
       </c>
       <c r="E8">
@@ -686,7 +686,7 @@
         <f t="shared" si="3"/>
         <v>641</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>7.0675840000000001</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>9.3297919999999994</v>
       </c>
       <c r="E9">
@@ -737,7 +737,7 @@
         <f t="shared" si="0"/>
         <v>641</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>17.600415999999999</v>
       </c>
       <c r="E10">
@@ -773,7 +773,7 @@
         <f t="shared" si="0"/>
         <v>2561</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>63.609000000000002</v>
       </c>
       <c r="E11">
@@ -809,7 +809,7 @@
         <f t="shared" si="0"/>
         <v>10241</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>205.36699999999999</v>
       </c>
       <c r="E12">
@@ -845,7 +845,7 @@
         <f t="shared" si="0"/>
         <v>40961</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>798.11469999999997</v>
       </c>
       <c r="E13">
@@ -881,7 +881,7 @@
         <f t="shared" si="0"/>
         <v>65535</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>3144.47</v>
       </c>
       <c r="E14">
@@ -908,12 +908,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code/resources/potential_time.xlsx
+++ b/Code/resources/potential_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GARIMA DOCUMENTS\CalTech\Term III\GPU\Project\Code\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B76695-F048-4AA1-B1BE-E01CFDB0BCB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD58D1-6DAE-4D03-85B5-F9137894C144}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5C95630-DDD0-42BC-8124-4BDC39BA0AB9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
   <si>
     <t>Naïve</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>256 threads per block, each vertex in every thread, shared memory for V, W</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EF6405-C662-4879-A5EF-9D151307B730}">
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,8 +909,462 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <f xml:space="preserve"> MIN(65535, CEILING(B19/256,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>7.4337280000000003</v>
+      </c>
+      <c r="E19">
+        <f>MIN(65535,B19)</f>
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>6.9486400000000001</v>
+      </c>
+      <c r="G19">
+        <f>MIN(65535,B19)</f>
+        <v>42</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.25081599999999998</v>
+      </c>
+      <c r="I19">
+        <f xml:space="preserve"> MIN(65535, CEILING(B19/16,1))</f>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0.84515200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>162</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C29" si="4" xml:space="preserve"> MIN(65535, CEILING(B20/256,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>7.4426240000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E29" si="5">MIN(65535,B20)</f>
+        <v>162</v>
+      </c>
+      <c r="F20">
+        <v>6.8789119999999997</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G29" si="6">MIN(65535,B20)</f>
+        <v>162</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.433888</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I29" si="7" xml:space="preserve"> MIN(65535, CEILING(B20/16,1))</f>
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>0.84326400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>642</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>7.1062399999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>642</v>
+      </c>
+      <c r="F21">
+        <v>8.6997119999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>642</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.9578880000000001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.83443199999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2562</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>7.1474880000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>2562</v>
+      </c>
+      <c r="F22">
+        <v>13.666816000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>2562</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5.1098559999999997</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.39392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>10242</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7.1992640000000003</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>10242</v>
+      </c>
+      <c r="F23">
+        <v>35.507679000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>10242</v>
+      </c>
+      <c r="H23">
+        <v>15.647424000000001</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>641</v>
+      </c>
+      <c r="J23" s="2">
+        <v>7.0675840000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>40962</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9.3297919999999994</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>40962</v>
+      </c>
+      <c r="F24">
+        <v>117.135902</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>40962</v>
+      </c>
+      <c r="H24">
+        <v>51.400257000000003</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>2561</v>
+      </c>
+      <c r="J24">
+        <v>28.049054999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>163842</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>641</v>
+      </c>
+      <c r="D25" s="3">
+        <v>17.600415999999999</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>65535</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>10241</v>
+      </c>
+      <c r="J25">
+        <v>104.71545399999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>655362</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>2561</v>
+      </c>
+      <c r="D26" s="3">
+        <v>63.609000000000002</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>65535</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>40961</v>
+      </c>
+      <c r="J26">
+        <v>412.38018799999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2621442</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>10241</v>
+      </c>
+      <c r="D27" s="3">
+        <v>205.36699999999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>65535</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>65535</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>10485762</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>40961</v>
+      </c>
+      <c r="D28" s="3">
+        <v>798.11469999999997</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>65535</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>65535</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>41943042</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>65535</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3144.47</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>65535</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>65535</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>

--- a/Code/resources/potential_time.xlsx
+++ b/Code/resources/potential_time.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GARIMA DOCUMENTS\CalTech\Term III\GPU\Project\Code\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD58D1-6DAE-4D03-85B5-F9137894C144}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E687185-ABF7-4968-85E9-B3C6A7F9D5C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5C95630-DDD0-42BC-8124-4BDC39BA0AB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="13">
   <si>
     <t>Naïve</t>
   </si>
@@ -445,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EF6405-C662-4879-A5EF-9D151307B730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529A143D-6A73-4525-B683-0B8032CBE79C}">
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +540,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="2">
-        <v>0.25081599999999998</v>
+        <v>0.24246400000000001</v>
       </c>
       <c r="I4">
         <f xml:space="preserve"> MIN(65535, CEILING(B4/16,1))</f>
@@ -568,14 +569,14 @@
         <v>162</v>
       </c>
       <c r="F5">
-        <v>6.8789119999999997</v>
+        <v>7.4478400000000002</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G14" si="2">MIN(65535,B5)</f>
         <v>162</v>
       </c>
       <c r="H5" s="2">
-        <v>0.433888</v>
+        <v>0.52038399999999996</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I14" si="3" xml:space="preserve"> MIN(65535, CEILING(B5/16,1))</f>
@@ -604,21 +605,21 @@
         <v>642</v>
       </c>
       <c r="F6">
-        <v>8.6997119999999999</v>
+        <v>9.3802880000000002</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
         <v>642</v>
       </c>
       <c r="H6" s="4">
-        <v>1.9578880000000001</v>
+        <v>1.8917759999999999</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="J6" s="2">
-        <v>0.83443199999999995</v>
+        <v>0.843808</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -640,14 +641,14 @@
         <v>2562</v>
       </c>
       <c r="F7">
-        <v>13.666816000000001</v>
+        <v>15.778879999999999</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
         <v>2562</v>
       </c>
       <c r="H7" s="4">
-        <v>5.1098559999999997</v>
+        <v>6.1452159999999996</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -676,14 +677,14 @@
         <v>10242</v>
       </c>
       <c r="F8">
-        <v>35.507679000000003</v>
+        <v>44.018559000000003</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
         <v>10242</v>
       </c>
       <c r="H8">
-        <v>15.647424000000001</v>
+        <v>24.265633000000001</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
@@ -705,28 +706,28 @@
         <v>161</v>
       </c>
       <c r="D9" s="3">
-        <v>9.3297919999999994</v>
+        <v>9.3397760000000005</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
         <v>40962</v>
       </c>
       <c r="F9">
-        <v>117.135902</v>
+        <v>145.50904800000001</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
         <v>40962</v>
       </c>
       <c r="H9">
-        <v>51.400257000000003</v>
+        <v>98.028640999999993</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
         <v>2561</v>
       </c>
       <c r="J9">
-        <v>28.049054999999999</v>
+        <v>27.718657</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -741,28 +742,28 @@
         <v>641</v>
       </c>
       <c r="D10" s="3">
-        <v>17.600415999999999</v>
+        <v>17.604769000000001</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
         <v>65535</v>
       </c>
-      <c r="F10" t="s">
-        <v>4</v>
+      <c r="F10">
+        <v>515.58227499999998</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
         <v>65535</v>
       </c>
-      <c r="H10" t="s">
-        <v>4</v>
+      <c r="H10">
+        <v>368.95147700000001</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
         <v>10241</v>
       </c>
       <c r="J10">
-        <v>104.71545399999999</v>
+        <v>111.33987399999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -777,28 +778,28 @@
         <v>2561</v>
       </c>
       <c r="D11" s="3">
-        <v>63.609000000000002</v>
+        <v>48.579040999999997</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
         <v>65535</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
+      <c r="F11">
+        <v>2067.0595699999999</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
         <v>65535</v>
       </c>
-      <c r="H11" t="s">
-        <v>4</v>
+      <c r="H11">
+        <v>1323.9182129999999</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
         <v>40961</v>
       </c>
       <c r="J11">
-        <v>412.38018799999998</v>
+        <v>382.09106400000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -813,28 +814,28 @@
         <v>10241</v>
       </c>
       <c r="D12" s="3">
-        <v>205.36699999999999</v>
+        <v>171.657318</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
         <v>65535</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
+      <c r="F12">
+        <v>8163.0625</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
         <v>65535</v>
       </c>
-      <c r="H12" t="s">
-        <v>4</v>
+      <c r="H12">
+        <v>5332.2026370000003</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
         <v>65535</v>
       </c>
-      <c r="J12" t="s">
-        <v>4</v>
+      <c r="J12">
+        <v>1511.0878909999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -849,28 +850,28 @@
         <v>40961</v>
       </c>
       <c r="D13" s="3">
-        <v>798.11469999999997</v>
+        <v>654.54150400000003</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
         <v>65535</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
+      <c r="F13">
+        <v>32047.78125</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
         <v>65535</v>
       </c>
-      <c r="H13" t="s">
-        <v>4</v>
+      <c r="H13">
+        <v>21240.992188</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
         <v>65535</v>
       </c>
-      <c r="J13" t="s">
-        <v>4</v>
+      <c r="J13">
+        <v>6038.0517579999996</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -987,7 +988,7 @@
         <v>42</v>
       </c>
       <c r="H19" s="2">
-        <v>0.25081599999999998</v>
+        <v>0.24246400000000001</v>
       </c>
       <c r="I19">
         <f xml:space="preserve"> MIN(65535, CEILING(B19/16,1))</f>
@@ -1005,6 +1006,905 @@
         <v>162</v>
       </c>
       <c r="C20">
+        <f t="shared" ref="C20:C28" si="4" xml:space="preserve"> MIN(65535, CEILING(B20/256,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>7.4426240000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E28" si="5">MIN(65535,B20)</f>
+        <v>162</v>
+      </c>
+      <c r="F20">
+        <v>7.4478400000000002</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G28" si="6">MIN(65535,B20)</f>
+        <v>162</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.52038399999999996</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I28" si="7" xml:space="preserve"> MIN(65535, CEILING(B20/16,1))</f>
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>0.84326400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>642</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>7.1062399999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>642</v>
+      </c>
+      <c r="F21">
+        <v>9.3802880000000002</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>642</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.8917759999999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.843808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2562</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>7.1474880000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>2562</v>
+      </c>
+      <c r="F22">
+        <v>15.778879999999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>2562</v>
+      </c>
+      <c r="H22" s="4">
+        <v>6.1452159999999996</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.39392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>10242</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7.1992640000000003</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>10242</v>
+      </c>
+      <c r="F23">
+        <v>44.018559000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>10242</v>
+      </c>
+      <c r="H23">
+        <v>24.265633000000001</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>641</v>
+      </c>
+      <c r="J23" s="2">
+        <v>7.0675840000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>40962</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9.3397760000000005</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>40962</v>
+      </c>
+      <c r="F24">
+        <v>145.50904800000001</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>40962</v>
+      </c>
+      <c r="H24">
+        <v>98.028640999999993</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>2561</v>
+      </c>
+      <c r="J24">
+        <v>27.718657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>163842</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>641</v>
+      </c>
+      <c r="D25" s="3">
+        <v>17.604769000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>65535</v>
+      </c>
+      <c r="F25">
+        <v>515.58227499999998</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="H25">
+        <v>368.95147700000001</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>10241</v>
+      </c>
+      <c r="J25">
+        <v>111.33987399999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>655362</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>2561</v>
+      </c>
+      <c r="D26" s="3">
+        <v>48.579040999999997</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>65535</v>
+      </c>
+      <c r="F26">
+        <v>2067.0595699999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="H26">
+        <v>1323.9182129999999</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>40961</v>
+      </c>
+      <c r="J26">
+        <v>382.09106400000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2621442</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>10241</v>
+      </c>
+      <c r="D27" s="3">
+        <v>171.657318</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>65535</v>
+      </c>
+      <c r="F27">
+        <v>8163.0625</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="H27">
+        <v>5332.2026370000003</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>65535</v>
+      </c>
+      <c r="J27">
+        <v>1511.0878909999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>10485762</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>40961</v>
+      </c>
+      <c r="D28" s="3">
+        <v>654.54150400000003</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>65535</v>
+      </c>
+      <c r="F28">
+        <v>32047.78125</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>65535</v>
+      </c>
+      <c r="H28">
+        <v>21240.992188</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>65535</v>
+      </c>
+      <c r="J28">
+        <v>6038.0517579999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EF6405-C662-4879-A5EF-9D151307B730}">
+  <dimension ref="A2:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <f xml:space="preserve"> MIN(65535, CEILING(B4/256,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7.4337280000000003</v>
+      </c>
+      <c r="E4">
+        <f>MIN(65535,B4)</f>
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>6.9486400000000001</v>
+      </c>
+      <c r="G4">
+        <f>MIN(65535,B4)</f>
+        <v>42</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.25081599999999998</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> MIN(65535, CEILING(B4/16,1))</f>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.84515200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>162</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C14" si="0" xml:space="preserve"> MIN(65535, CEILING(B5/256,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7.4426240000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E14" si="1">MIN(65535,B5)</f>
+        <v>162</v>
+      </c>
+      <c r="F5">
+        <v>6.8789119999999997</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G14" si="2">MIN(65535,B5)</f>
+        <v>162</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.433888</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I14" si="3" xml:space="preserve"> MIN(65535, CEILING(B5/16,1))</f>
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>0.84326400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>642</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>7.1062399999999997</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>642</v>
+      </c>
+      <c r="F6">
+        <v>8.6997119999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.9578880000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.83443199999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2562</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>7.1474880000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2562</v>
+      </c>
+      <c r="F7">
+        <v>13.666816000000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2562</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.1098559999999997</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.39392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>10242</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.1992640000000003</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>10242</v>
+      </c>
+      <c r="F8">
+        <v>35.507679000000003</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>10242</v>
+      </c>
+      <c r="H8">
+        <v>15.647424000000001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>641</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7.0675840000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>40962</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.3297919999999994</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>40962</v>
+      </c>
+      <c r="F9">
+        <v>117.135902</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>40962</v>
+      </c>
+      <c r="H9">
+        <v>51.400257000000003</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>2561</v>
+      </c>
+      <c r="J9">
+        <v>28.049054999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>163842</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>641</v>
+      </c>
+      <c r="D10" s="3">
+        <v>17.600415999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>65535</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>65535</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>10241</v>
+      </c>
+      <c r="J10">
+        <v>104.71545399999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>655362</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2561</v>
+      </c>
+      <c r="D11" s="3">
+        <v>63.609000000000002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>65535</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>65535</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>40961</v>
+      </c>
+      <c r="J11">
+        <v>412.38018799999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2621442</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>10241</v>
+      </c>
+      <c r="D12" s="3">
+        <v>205.36699999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>65535</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>65535</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>65535</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10485762</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>40961</v>
+      </c>
+      <c r="D13" s="3">
+        <v>798.11469999999997</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>65535</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>65535</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>65535</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>41943042</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>65535</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3144.47</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>65535</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>65535</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>65535</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <f xml:space="preserve"> MIN(65535, CEILING(B19/256,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>7.4337280000000003</v>
+      </c>
+      <c r="E19">
+        <f>MIN(65535,B19)</f>
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>6.9486400000000001</v>
+      </c>
+      <c r="G19">
+        <f>MIN(65535,B19)</f>
+        <v>42</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.25081599999999998</v>
+      </c>
+      <c r="I19">
+        <f xml:space="preserve"> MIN(65535, CEILING(B19/16,1))</f>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0.84515200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>162</v>
+      </c>
+      <c r="C20">
         <f t="shared" ref="C20:C29" si="4" xml:space="preserve"> MIN(65535, CEILING(B20/256,1))</f>
         <v>1</v>
       </c>
@@ -1359,18 +2259,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
